--- a/mAjustesInventario/bak_Libro3.xlsx
+++ b/mAjustesInventario/bak_Libro3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erick Acosta\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A124A470-FEA3-411D-9EB4-BF2DFCDD49DE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EB4458E1-DBCE-46D8-B98A-2FB982702645}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{452A9FC4-BB6F-4E3F-8045-996CA1117977}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{D995BBE0-0E43-46B9-A056-4CEDA6290302}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -26,6 +26,7 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -33,72 +34,213 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
-  <si>
-    <t>7501048782031</t>
-  </si>
-  <si>
-    <t>0405</t>
-  </si>
-  <si>
-    <t>7501005108096</t>
-  </si>
-  <si>
-    <t>7502267450169</t>
-  </si>
-  <si>
-    <t>7501042305472</t>
-  </si>
-  <si>
-    <t>7501614311481</t>
-  </si>
-  <si>
-    <t>102490</t>
-  </si>
-  <si>
-    <t>012388000312</t>
-  </si>
-  <si>
-    <t>094331198758</t>
-  </si>
-  <si>
-    <t>102975</t>
-  </si>
-  <si>
-    <t>7500326020216</t>
-  </si>
-  <si>
-    <t>7503001403670</t>
-  </si>
-  <si>
-    <t>2080</t>
-  </si>
-  <si>
-    <t>7500464050601</t>
-  </si>
-  <si>
-    <t>7501008763537</t>
-  </si>
-  <si>
-    <t>7501011143418</t>
-  </si>
-  <si>
-    <t>7501020548440</t>
-  </si>
-  <si>
-    <t>7503015496040</t>
-  </si>
-  <si>
-    <t>759684272318</t>
-  </si>
-  <si>
-    <t>0709</t>
-  </si>
-  <si>
-    <t>0155</t>
-  </si>
-  <si>
-    <t>1138</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="69">
+  <si>
+    <t>034587090758</t>
+  </si>
+  <si>
+    <t>038629001702</t>
+  </si>
+  <si>
+    <t>0502</t>
+  </si>
+  <si>
+    <t>0510</t>
+  </si>
+  <si>
+    <t>0523</t>
+  </si>
+  <si>
+    <t>0533</t>
+  </si>
+  <si>
+    <t>0549</t>
+  </si>
+  <si>
+    <t>0662</t>
+  </si>
+  <si>
+    <t>0702</t>
+  </si>
+  <si>
+    <t>0704</t>
+  </si>
+  <si>
+    <t>0725</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>1013</t>
+  </si>
+  <si>
+    <t>102433</t>
+  </si>
+  <si>
+    <t>112505</t>
+  </si>
+  <si>
+    <t>197</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>2083</t>
+  </si>
+  <si>
+    <t>316</t>
+  </si>
+  <si>
+    <t>334</t>
+  </si>
+  <si>
+    <t>564</t>
+  </si>
+  <si>
+    <t>69</t>
+  </si>
+  <si>
+    <t>721058</t>
+  </si>
+  <si>
+    <t>7501005117371</t>
+  </si>
+  <si>
+    <t>7501056326173</t>
+  </si>
+  <si>
+    <t>7502269960413</t>
+  </si>
+  <si>
+    <t>815</t>
+  </si>
+  <si>
+    <t>902</t>
+  </si>
+  <si>
+    <t>903</t>
+  </si>
+  <si>
+    <t>908</t>
+  </si>
+  <si>
+    <t>910</t>
+  </si>
+  <si>
+    <t>918</t>
+  </si>
+  <si>
+    <t>919</t>
+  </si>
+  <si>
+    <t>921</t>
+  </si>
+  <si>
+    <t>922</t>
+  </si>
+  <si>
+    <t>924</t>
+  </si>
+  <si>
+    <t>926</t>
+  </si>
+  <si>
+    <t>929</t>
+  </si>
+  <si>
+    <t>930</t>
+  </si>
+  <si>
+    <t>934</t>
+  </si>
+  <si>
+    <t>940</t>
+  </si>
+  <si>
+    <t>941</t>
+  </si>
+  <si>
+    <t>949</t>
+  </si>
+  <si>
+    <t>950003</t>
+  </si>
+  <si>
+    <t>950004</t>
+  </si>
+  <si>
+    <t>950005</t>
+  </si>
+  <si>
+    <t>950015</t>
+  </si>
+  <si>
+    <t>950021</t>
+  </si>
+  <si>
+    <t>951</t>
+  </si>
+  <si>
+    <t>952</t>
+  </si>
+  <si>
+    <t>953132</t>
+  </si>
+  <si>
+    <t>954</t>
+  </si>
+  <si>
+    <t>960</t>
+  </si>
+  <si>
+    <t>965</t>
+  </si>
+  <si>
+    <t>966</t>
+  </si>
+  <si>
+    <t>967</t>
+  </si>
+  <si>
+    <t>969</t>
+  </si>
+  <si>
+    <t>970</t>
+  </si>
+  <si>
+    <t>974</t>
+  </si>
+  <si>
+    <t>975</t>
+  </si>
+  <si>
+    <t>976</t>
+  </si>
+  <si>
+    <t>977</t>
+  </si>
+  <si>
+    <t>978</t>
+  </si>
+  <si>
+    <t>979</t>
+  </si>
+  <si>
+    <t>980</t>
+  </si>
+  <si>
+    <t>981</t>
+  </si>
+  <si>
+    <t>982</t>
+  </si>
+  <si>
+    <t>986</t>
+  </si>
+  <si>
+    <t>987</t>
   </si>
 </sst>
 </file>
@@ -450,8 +592,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC379D1B-4C6C-4F11-A58A-088FC51544BA}">
-  <dimension ref="A1:B22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0C658A6-578A-4F80-BF1D-2C09638F3048}">
+  <dimension ref="A1:B69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:A1048576"/>
@@ -464,7 +606,7 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>30</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -472,7 +614,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -480,7 +622,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>7</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -488,7 +630,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -496,7 +638,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -504,7 +646,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -512,7 +654,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -528,7 +670,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -536,7 +678,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -544,7 +686,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
@@ -552,7 +694,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>2</v>
+        <v>131</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
@@ -568,7 +710,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>1</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
@@ -584,7 +726,7 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
@@ -592,7 +734,7 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
@@ -600,7 +742,7 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
@@ -608,7 +750,7 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
@@ -616,7 +758,7 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
@@ -632,6 +774,382 @@
         <v>21</v>
       </c>
       <c r="B22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B42">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B44">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B45">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B46">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B47">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B48">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B49">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B50">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B51">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B52">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B53">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B54">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B55">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A56" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B56">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A57" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B57">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A58" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B58">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A59" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B59">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A60" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B60">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A61" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A62" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B62">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A63" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A64" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B64">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A65" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B65">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A66" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B66">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A67" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B67">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A68" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A69" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B69">
         <v>1</v>
       </c>
     </row>
